--- a/data/pca/factorExposure/factorExposure_2019-04-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1300757573037692</v>
+        <v>0.07839462737138689</v>
       </c>
       <c r="C2">
-        <v>-0.003467014334769228</v>
+        <v>0.03945994608169218</v>
       </c>
       <c r="D2">
-        <v>-0.03533891369906382</v>
+        <v>0.01163759305070881</v>
       </c>
       <c r="E2">
-        <v>-0.1116380700254063</v>
+        <v>0.03645092980750946</v>
       </c>
       <c r="F2">
-        <v>-0.1066016580494037</v>
+        <v>0.1422401831580691</v>
       </c>
       <c r="G2">
-        <v>0.02526940115892918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1102234667251357</v>
+      </c>
+      <c r="H2">
+        <v>-0.0520506902598954</v>
+      </c>
+      <c r="I2">
+        <v>-0.02683104887255812</v>
+      </c>
+      <c r="J2">
+        <v>0.07450230942678505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2268867495242819</v>
+        <v>0.1698650757697704</v>
       </c>
       <c r="C3">
-        <v>0.1091561262343261</v>
+        <v>0.09280840252011076</v>
       </c>
       <c r="D3">
-        <v>0.06297400560627381</v>
+        <v>-0.03492055267135104</v>
       </c>
       <c r="E3">
-        <v>-0.3155653471410612</v>
+        <v>-0.02753241340225042</v>
       </c>
       <c r="F3">
-        <v>-0.01080911738704126</v>
+        <v>0.3692721006630548</v>
       </c>
       <c r="G3">
-        <v>0.1240154408344101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09238904448715637</v>
+      </c>
+      <c r="H3">
+        <v>-0.2790535798136093</v>
+      </c>
+      <c r="I3">
+        <v>-0.2041148967239834</v>
+      </c>
+      <c r="J3">
+        <v>0.2686214102927583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09899085470122225</v>
+        <v>0.07479765369753655</v>
       </c>
       <c r="C4">
-        <v>0.0350897332717461</v>
+        <v>0.03883582238471668</v>
       </c>
       <c r="D4">
-        <v>-0.02047250071893092</v>
+        <v>-0.02896519304510153</v>
       </c>
       <c r="E4">
-        <v>-0.07685950557410179</v>
+        <v>0.0311982886321116</v>
       </c>
       <c r="F4">
-        <v>-0.03716453756129953</v>
+        <v>0.08408854750490792</v>
       </c>
       <c r="G4">
-        <v>0.04082676792442991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04511510141164622</v>
+      </c>
+      <c r="H4">
+        <v>-0.02440658222148078</v>
+      </c>
+      <c r="I4">
+        <v>-0.0338596993859771</v>
+      </c>
+      <c r="J4">
+        <v>0.06161027113977902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01730628817765039</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.007492857951584377</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009235652418988183</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003861228994520922</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001744902867418538</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02119426490377227</v>
+      </c>
+      <c r="H6">
+        <v>-0.003432470507356738</v>
+      </c>
+      <c r="I6">
+        <v>0.0111366028960079</v>
+      </c>
+      <c r="J6">
+        <v>0.001149805293981234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04369324137679308</v>
+        <v>0.03590637765866746</v>
       </c>
       <c r="C7">
-        <v>0.007393068914830765</v>
+        <v>0.007225379018587902</v>
       </c>
       <c r="D7">
-        <v>-0.02906705031485089</v>
+        <v>-0.04100365816365503</v>
       </c>
       <c r="E7">
-        <v>-0.07370258195293</v>
+        <v>0.02615274221021543</v>
       </c>
       <c r="F7">
-        <v>0.05159671466741499</v>
+        <v>0.05509466099094822</v>
       </c>
       <c r="G7">
-        <v>-0.0001348439424619939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005710561830237478</v>
+      </c>
+      <c r="H7">
+        <v>-0.04608905240794172</v>
+      </c>
+      <c r="I7">
+        <v>0.006774049662139195</v>
+      </c>
+      <c r="J7">
+        <v>0.05052114744548707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04263009240605926</v>
+        <v>0.0300397256948762</v>
       </c>
       <c r="C8">
-        <v>0.04485719736641592</v>
+        <v>0.04140036937104631</v>
       </c>
       <c r="D8">
-        <v>0.0003858711837393429</v>
+        <v>-0.02884159841023804</v>
       </c>
       <c r="E8">
-        <v>-0.07041534483147652</v>
+        <v>0.01093303513337048</v>
       </c>
       <c r="F8">
-        <v>-0.007267978245248001</v>
+        <v>0.07378641688064021</v>
       </c>
       <c r="G8">
-        <v>0.02169439015237689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02123762991137778</v>
+      </c>
+      <c r="H8">
+        <v>-0.04943943207605275</v>
+      </c>
+      <c r="I8">
+        <v>-0.03322592728935028</v>
+      </c>
+      <c r="J8">
+        <v>0.06512040592763808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08726728392362872</v>
+        <v>0.06178555669409471</v>
       </c>
       <c r="C9">
-        <v>0.03491520638842235</v>
+        <v>0.03346099372241514</v>
       </c>
       <c r="D9">
-        <v>-0.02844169666325794</v>
+        <v>-0.03199502961472637</v>
       </c>
       <c r="E9">
-        <v>-0.06246165385356879</v>
+        <v>0.02805678761815676</v>
       </c>
       <c r="F9">
-        <v>-0.02541646430239705</v>
+        <v>0.08362490793499518</v>
       </c>
       <c r="G9">
-        <v>0.0575597172133203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04317665465285099</v>
+      </c>
+      <c r="H9">
+        <v>-0.0205487850328865</v>
+      </c>
+      <c r="I9">
+        <v>-0.01467544770867535</v>
+      </c>
+      <c r="J9">
+        <v>0.03986961044928888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.001952615121751897</v>
+        <v>0.02049639496837717</v>
       </c>
       <c r="C10">
-        <v>-0.158317752876245</v>
+        <v>-0.1429202588226693</v>
       </c>
       <c r="D10">
-        <v>0.01942776750225229</v>
+        <v>0.06427730088971158</v>
       </c>
       <c r="E10">
-        <v>-0.06863145981360398</v>
+        <v>-0.01605114174080117</v>
       </c>
       <c r="F10">
-        <v>-0.01845262706811528</v>
+        <v>0.07157388859746197</v>
       </c>
       <c r="G10">
-        <v>-0.01905868257652297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02419397481187272</v>
+      </c>
+      <c r="H10">
+        <v>0.0007803090961478738</v>
+      </c>
+      <c r="I10">
+        <v>-0.1110824659099794</v>
+      </c>
+      <c r="J10">
+        <v>-0.0007252466495999134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05753770246344923</v>
+        <v>0.04919540210748367</v>
       </c>
       <c r="C11">
-        <v>0.007471161913897734</v>
+        <v>0.02743388816229511</v>
       </c>
       <c r="D11">
-        <v>0.0115652726305085</v>
+        <v>-0.001786430850083003</v>
       </c>
       <c r="E11">
-        <v>-0.03860324625468731</v>
+        <v>0.004113022319718553</v>
       </c>
       <c r="F11">
-        <v>-0.008020705996275804</v>
+        <v>0.04061576977331396</v>
       </c>
       <c r="G11">
-        <v>-0.02131890826583227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.009157599648622474</v>
+      </c>
+      <c r="H11">
+        <v>-0.00177324605342268</v>
+      </c>
+      <c r="I11">
+        <v>0.01774532242567375</v>
+      </c>
+      <c r="J11">
+        <v>0.04177219589512284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04464249388487786</v>
+        <v>0.04681877020150951</v>
       </c>
       <c r="C12">
-        <v>0.01433689470717817</v>
+        <v>0.02204789441126777</v>
       </c>
       <c r="D12">
-        <v>0.006750803402605484</v>
+        <v>-0.0115110071182842</v>
       </c>
       <c r="E12">
-        <v>-0.0277149081988505</v>
+        <v>0.007174350717403053</v>
       </c>
       <c r="F12">
-        <v>0.001179390051369553</v>
+        <v>0.0179622357359003</v>
       </c>
       <c r="G12">
-        <v>0.0003498025691526914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0003151421865853131</v>
+      </c>
+      <c r="H12">
+        <v>-0.002491750123084957</v>
+      </c>
+      <c r="I12">
+        <v>0.01538990382333438</v>
+      </c>
+      <c r="J12">
+        <v>0.02639771457319385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06371211979807596</v>
+        <v>0.04238523893628505</v>
       </c>
       <c r="C13">
-        <v>0.01956256344669982</v>
+        <v>0.03022714200197614</v>
       </c>
       <c r="D13">
-        <v>0.01821813763045948</v>
+        <v>0.005798660723835327</v>
       </c>
       <c r="E13">
-        <v>-0.1058230430400766</v>
+        <v>0.004206557658508433</v>
       </c>
       <c r="F13">
-        <v>-0.01633075087233768</v>
+        <v>0.1056063226354586</v>
       </c>
       <c r="G13">
-        <v>-0.0005472783209398023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02336294416145993</v>
+      </c>
+      <c r="H13">
+        <v>-0.04785290229352355</v>
+      </c>
+      <c r="I13">
+        <v>-0.005704059581006323</v>
+      </c>
+      <c r="J13">
+        <v>0.05960699312676754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03801462592990574</v>
+        <v>0.02889824198486816</v>
       </c>
       <c r="C14">
-        <v>0.008223780981088807</v>
+        <v>0.01471665612597832</v>
       </c>
       <c r="D14">
-        <v>-0.02072238901408339</v>
+        <v>-0.01167334247238942</v>
       </c>
       <c r="E14">
-        <v>-0.01958357027688247</v>
+        <v>0.02375282103339965</v>
       </c>
       <c r="F14">
-        <v>-0.003470700605746492</v>
+        <v>0.0388089648623658</v>
       </c>
       <c r="G14">
-        <v>-0.02154882976024993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03018201488006918</v>
+      </c>
+      <c r="H14">
+        <v>-0.05136269710115226</v>
+      </c>
+      <c r="I14">
+        <v>-0.008890946598140097</v>
+      </c>
+      <c r="J14">
+        <v>0.01633838193721207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04735043750844877</v>
+        <v>0.04446716367762092</v>
       </c>
       <c r="C16">
-        <v>0.02347324476754842</v>
+        <v>0.03252133716715171</v>
       </c>
       <c r="D16">
-        <v>0.01498119130866741</v>
+        <v>-0.010056235231797</v>
       </c>
       <c r="E16">
-        <v>-0.03244922462964068</v>
+        <v>0.0006078384317700787</v>
       </c>
       <c r="F16">
-        <v>0.004748688174199053</v>
+        <v>0.03402950344630196</v>
       </c>
       <c r="G16">
-        <v>-0.006034565694358254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.003389779396645756</v>
+      </c>
+      <c r="H16">
+        <v>-0.008343993953241712</v>
+      </c>
+      <c r="I16">
+        <v>0.01502008296614333</v>
+      </c>
+      <c r="J16">
+        <v>0.03542424238149014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05249056564802074</v>
+        <v>0.04748207991231151</v>
       </c>
       <c r="C19">
-        <v>0.03033345589117485</v>
+        <v>0.04239219962598579</v>
       </c>
       <c r="D19">
-        <v>0.01103244869120897</v>
+        <v>-0.01387561117163639</v>
       </c>
       <c r="E19">
-        <v>-0.06974306447181972</v>
+        <v>0.0118213454012472</v>
       </c>
       <c r="F19">
-        <v>0.0164030545207631</v>
+        <v>0.08257528540749215</v>
       </c>
       <c r="G19">
-        <v>-0.02741501515983779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01206334715279252</v>
+      </c>
+      <c r="H19">
+        <v>-0.08431234597589586</v>
+      </c>
+      <c r="I19">
+        <v>-0.03264079962677639</v>
+      </c>
+      <c r="J19">
+        <v>0.04879924030877709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03869048476291222</v>
+        <v>0.01904379593519563</v>
       </c>
       <c r="C20">
-        <v>0.03757897460936325</v>
+        <v>0.0281855402326003</v>
       </c>
       <c r="D20">
-        <v>-0.01064168136699897</v>
+        <v>-0.0180065344762117</v>
       </c>
       <c r="E20">
-        <v>-0.06295633142116494</v>
+        <v>0.01543384092239937</v>
       </c>
       <c r="F20">
-        <v>0.01356994403164754</v>
+        <v>0.0668533060030336</v>
       </c>
       <c r="G20">
-        <v>-0.005986968891927806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01629275146416944</v>
+      </c>
+      <c r="H20">
+        <v>-0.07199536941286386</v>
+      </c>
+      <c r="I20">
+        <v>-0.01658070107909473</v>
+      </c>
+      <c r="J20">
+        <v>0.07864950469622932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04072536978196183</v>
+        <v>0.02364895016409246</v>
       </c>
       <c r="C21">
-        <v>0.0216702753883859</v>
+        <v>0.02485653510121893</v>
       </c>
       <c r="D21">
-        <v>0.001764765322556439</v>
+        <v>-0.02551337820980773</v>
       </c>
       <c r="E21">
-        <v>-0.09247618542065512</v>
+        <v>0.001530503315441568</v>
       </c>
       <c r="F21">
-        <v>-0.04784897722701915</v>
+        <v>0.07853708875825707</v>
       </c>
       <c r="G21">
-        <v>-0.007796504405281755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03462413908131048</v>
+      </c>
+      <c r="H21">
+        <v>-0.02579805251473842</v>
+      </c>
+      <c r="I21">
+        <v>0.01137812439808152</v>
+      </c>
+      <c r="J21">
+        <v>0.03152763062007286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04923112458901474</v>
+        <v>0.04330532646557848</v>
       </c>
       <c r="C24">
-        <v>0.01572949715737656</v>
+        <v>0.02209222434466349</v>
       </c>
       <c r="D24">
-        <v>0.004712186975566356</v>
+        <v>-0.006300822925492524</v>
       </c>
       <c r="E24">
-        <v>-0.04216049109386202</v>
+        <v>0.005932091526820425</v>
       </c>
       <c r="F24">
-        <v>0.002885941532040223</v>
+        <v>0.04055896509767469</v>
       </c>
       <c r="G24">
-        <v>0.000476153531855996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003049550257633754</v>
+      </c>
+      <c r="H24">
+        <v>-0.007416582123752608</v>
+      </c>
+      <c r="I24">
+        <v>0.01375003218279565</v>
+      </c>
+      <c r="J24">
+        <v>0.04133679627845838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04970813119054501</v>
+        <v>0.04571259319285894</v>
       </c>
       <c r="C25">
-        <v>0.006485967722418034</v>
+        <v>0.02236578643767493</v>
       </c>
       <c r="D25">
-        <v>0.008047897841179994</v>
+        <v>-0.005174243575401942</v>
       </c>
       <c r="E25">
-        <v>-0.04094813503787431</v>
+        <v>0.003927236866720304</v>
       </c>
       <c r="F25">
-        <v>-0.007698652261707918</v>
+        <v>0.04461057993778717</v>
       </c>
       <c r="G25">
-        <v>-0.009634789188817036</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004011196923138634</v>
+      </c>
+      <c r="H25">
+        <v>-0.001300672708829438</v>
+      </c>
+      <c r="I25">
+        <v>0.01492657981851791</v>
+      </c>
+      <c r="J25">
+        <v>0.03368363246249308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.0135430296658977</v>
+        <v>0.0163863545989714</v>
       </c>
       <c r="C26">
-        <v>0.02627187203537802</v>
+        <v>0.02395265261617822</v>
       </c>
       <c r="D26">
-        <v>-0.0002040822825771839</v>
+        <v>-0.004710583135631986</v>
       </c>
       <c r="E26">
-        <v>-0.03551472060285832</v>
+        <v>-0.00142147985966037</v>
       </c>
       <c r="F26">
-        <v>-0.01739420570322971</v>
+        <v>0.04423366354464066</v>
       </c>
       <c r="G26">
-        <v>-0.01734384399345261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02069699661425919</v>
+      </c>
+      <c r="H26">
+        <v>-0.03035340862205872</v>
+      </c>
+      <c r="I26">
+        <v>0.007453440469462368</v>
+      </c>
+      <c r="J26">
+        <v>0.03605856425083737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1145106742689237</v>
+        <v>0.08017843468506654</v>
       </c>
       <c r="C27">
-        <v>0.02438828125636423</v>
+        <v>0.03024674523024204</v>
       </c>
       <c r="D27">
-        <v>-0.01490881390849319</v>
+        <v>-0.01366977390971016</v>
       </c>
       <c r="E27">
-        <v>-0.09952454287575871</v>
+        <v>0.02896329223557082</v>
       </c>
       <c r="F27">
-        <v>-0.01150151311091482</v>
+        <v>0.07213592245618156</v>
       </c>
       <c r="G27">
-        <v>0.01011562836258077</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01716312017295567</v>
+      </c>
+      <c r="H27">
+        <v>-0.008112776231732193</v>
+      </c>
+      <c r="I27">
+        <v>-0.01421903513442128</v>
+      </c>
+      <c r="J27">
+        <v>0.04440101781734318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.001847063755286889</v>
+        <v>0.0382763856274703</v>
       </c>
       <c r="C28">
-        <v>-0.243734956037192</v>
+        <v>-0.2208584826664522</v>
       </c>
       <c r="D28">
-        <v>0.02218537121337083</v>
+        <v>0.08861351164039558</v>
       </c>
       <c r="E28">
-        <v>-0.04188439124228401</v>
+        <v>-0.02632519911028311</v>
       </c>
       <c r="F28">
-        <v>-0.02084143632374251</v>
+        <v>0.05706384115515017</v>
       </c>
       <c r="G28">
-        <v>0.0006360022744156082</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02697042980997856</v>
+      </c>
+      <c r="H28">
+        <v>0.008711859244417919</v>
+      </c>
+      <c r="I28">
+        <v>-0.1564311198904922</v>
+      </c>
+      <c r="J28">
+        <v>0.01244169243185234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02381872830408288</v>
+        <v>0.02164077523147866</v>
       </c>
       <c r="C29">
-        <v>0.01660361742416794</v>
+        <v>0.0170654442173903</v>
       </c>
       <c r="D29">
-        <v>-0.02412379424786403</v>
+        <v>-0.01686128992039286</v>
       </c>
       <c r="E29">
-        <v>-0.02466422929649497</v>
+        <v>0.02331832382025091</v>
       </c>
       <c r="F29">
-        <v>-0.01545061445225019</v>
+        <v>0.03773783281133448</v>
       </c>
       <c r="G29">
-        <v>-0.01825736671075657</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03335571301090463</v>
+      </c>
+      <c r="H29">
+        <v>-0.04765538948680594</v>
+      </c>
+      <c r="I29">
+        <v>0.001964694585457841</v>
+      </c>
+      <c r="J29">
+        <v>0.009437821685871374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1047916742721419</v>
+        <v>0.09365430824300083</v>
       </c>
       <c r="C30">
-        <v>0.01447060133275905</v>
+        <v>0.05572117564578594</v>
       </c>
       <c r="D30">
-        <v>-0.01339122577484683</v>
+        <v>0.02116951972810231</v>
       </c>
       <c r="E30">
-        <v>-0.116082215459895</v>
+        <v>0.02888593920709913</v>
       </c>
       <c r="F30">
-        <v>-0.009879522761613142</v>
+        <v>0.1030109394975956</v>
       </c>
       <c r="G30">
-        <v>-0.03750695799648088</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01349855518711659</v>
+      </c>
+      <c r="H30">
+        <v>-0.01727657913398836</v>
+      </c>
+      <c r="I30">
+        <v>0.01521706148269148</v>
+      </c>
+      <c r="J30">
+        <v>0.03336565085839597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05998843732876972</v>
+        <v>0.06279346867925231</v>
       </c>
       <c r="C31">
-        <v>0.01493128219898913</v>
+        <v>0.02499181450758909</v>
       </c>
       <c r="D31">
-        <v>-0.01968703389835827</v>
+        <v>0.003525546379059734</v>
       </c>
       <c r="E31">
-        <v>0.01644287912217979</v>
+        <v>0.01943007119137634</v>
       </c>
       <c r="F31">
-        <v>-0.01442900064867838</v>
+        <v>0.003048503670145217</v>
       </c>
       <c r="G31">
-        <v>-0.05001124008950875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04374735483977266</v>
+      </c>
+      <c r="H31">
+        <v>-0.03004887763796639</v>
+      </c>
+      <c r="I31">
+        <v>-0.006874882404487895</v>
+      </c>
+      <c r="J31">
+        <v>0.01457902172976722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.0689304940949029</v>
+        <v>0.04578586035685769</v>
       </c>
       <c r="C32">
-        <v>0.0307836213419792</v>
+        <v>0.04394994243061269</v>
       </c>
       <c r="D32">
-        <v>-0.002417790164560835</v>
+        <v>-0.03185886581982413</v>
       </c>
       <c r="E32">
-        <v>-0.1123703882483693</v>
+        <v>0.02276968887121336</v>
       </c>
       <c r="F32">
-        <v>0.003953260439067359</v>
+        <v>0.08984908877879871</v>
       </c>
       <c r="G32">
-        <v>-0.02247789841400901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01371467549378636</v>
+      </c>
+      <c r="H32">
+        <v>-0.03718041643031902</v>
+      </c>
+      <c r="I32">
+        <v>-0.01625393701934449</v>
+      </c>
+      <c r="J32">
+        <v>0.0473434844179489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06938770268509574</v>
+        <v>0.05794286054220954</v>
       </c>
       <c r="C33">
-        <v>0.0370999009637674</v>
+        <v>0.05506229276743478</v>
       </c>
       <c r="D33">
-        <v>-0.001059932060299581</v>
+        <v>0.0004082768254594293</v>
       </c>
       <c r="E33">
-        <v>-0.0719913874270915</v>
+        <v>0.003109910460980279</v>
       </c>
       <c r="F33">
-        <v>-0.04777913015780779</v>
+        <v>0.07906495828194983</v>
       </c>
       <c r="G33">
-        <v>-0.01187499280382982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03697486495847211</v>
+      </c>
+      <c r="H33">
+        <v>-0.03637891950022972</v>
+      </c>
+      <c r="I33">
+        <v>0.01812889027944884</v>
+      </c>
+      <c r="J33">
+        <v>0.04847801898947588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04857168969668788</v>
+        <v>0.04618142817422584</v>
       </c>
       <c r="C34">
-        <v>0.01522325698297243</v>
+        <v>0.02768109876428257</v>
       </c>
       <c r="D34">
-        <v>0.005121273492784258</v>
+        <v>-0.01311088336050104</v>
       </c>
       <c r="E34">
-        <v>-0.02301677423498259</v>
+        <v>0.01199267511976944</v>
       </c>
       <c r="F34">
-        <v>0.003636926435912616</v>
+        <v>0.03128512554991025</v>
       </c>
       <c r="G34">
-        <v>-0.01035367948249209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004114653612608504</v>
+      </c>
+      <c r="H34">
+        <v>-0.01070050463022158</v>
+      </c>
+      <c r="I34">
+        <v>0.01432574558838619</v>
+      </c>
+      <c r="J34">
+        <v>0.03092685796062471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01296591488936876</v>
+        <v>0.01584036487099707</v>
       </c>
       <c r="C36">
-        <v>-0.008028540215772336</v>
+        <v>0.000719809024388106</v>
       </c>
       <c r="D36">
-        <v>-0.004727841631452607</v>
+        <v>-0.004802164533183813</v>
       </c>
       <c r="E36">
-        <v>-0.02187366979547442</v>
+        <v>0.008077890513793136</v>
       </c>
       <c r="F36">
-        <v>-0.007732385356064898</v>
+        <v>0.02815232925136373</v>
       </c>
       <c r="G36">
-        <v>-0.01543743005140812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02455677444248267</v>
+      </c>
+      <c r="H36">
+        <v>-0.02776996863667362</v>
+      </c>
+      <c r="I36">
+        <v>0.005018883296371346</v>
+      </c>
+      <c r="J36">
+        <v>0.002361130066873069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05564438593995286</v>
+        <v>0.03466312358140477</v>
       </c>
       <c r="C38">
-        <v>0.01024134929601723</v>
+        <v>0.01294147225563086</v>
       </c>
       <c r="D38">
-        <v>-0.02098448765217624</v>
+        <v>-0.007495646106724594</v>
       </c>
       <c r="E38">
-        <v>-0.0371968301867512</v>
+        <v>0.009475962052867116</v>
       </c>
       <c r="F38">
-        <v>-0.002028925073413671</v>
+        <v>0.05101478307999247</v>
       </c>
       <c r="G38">
-        <v>0.02693646221416656</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02717661753654977</v>
+      </c>
+      <c r="H38">
+        <v>-0.01404655242307086</v>
+      </c>
+      <c r="I38">
+        <v>0.01138479265867617</v>
+      </c>
+      <c r="J38">
+        <v>0.001826549288328654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07525136860748932</v>
+        <v>0.05824073539896354</v>
       </c>
       <c r="C39">
-        <v>0.012983903892096</v>
+        <v>0.04062699584085041</v>
       </c>
       <c r="D39">
-        <v>0.002621876701234535</v>
+        <v>-0.008357383796724165</v>
       </c>
       <c r="E39">
-        <v>-0.04014213242659465</v>
+        <v>0.01245030324179948</v>
       </c>
       <c r="F39">
-        <v>-0.02010362186407606</v>
+        <v>0.05683356377163144</v>
       </c>
       <c r="G39">
-        <v>-0.009217771088400996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01777366607109426</v>
+      </c>
+      <c r="H39">
+        <v>-0.0006539203587919346</v>
+      </c>
+      <c r="I39">
+        <v>0.03734169830682898</v>
+      </c>
+      <c r="J39">
+        <v>0.04343753185924817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07673249462311335</v>
+        <v>0.05756469976927384</v>
       </c>
       <c r="C40">
-        <v>0.03403208631552718</v>
+        <v>0.04814609211092738</v>
       </c>
       <c r="D40">
-        <v>0.002209770391531073</v>
+        <v>0.005461441611458152</v>
       </c>
       <c r="E40">
-        <v>-0.1012537157403792</v>
+        <v>0.01821763810115044</v>
       </c>
       <c r="F40">
-        <v>-0.03068375513152784</v>
+        <v>0.0967162232849996</v>
       </c>
       <c r="G40">
-        <v>0.0388234714247517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02637168081707873</v>
+      </c>
+      <c r="H40">
+        <v>-0.05168755177729113</v>
+      </c>
+      <c r="I40">
+        <v>-0.003457209937310891</v>
+      </c>
+      <c r="J40">
+        <v>0.1169136240625477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004180535736941744</v>
+        <v>0.002641883420132646</v>
       </c>
       <c r="C41">
-        <v>0.01242909321955987</v>
+        <v>0.01070401753378335</v>
       </c>
       <c r="D41">
-        <v>-0.02112331732031825</v>
+        <v>-0.004835058414321844</v>
       </c>
       <c r="E41">
-        <v>-0.01393442237427046</v>
+        <v>0.005823694272329196</v>
       </c>
       <c r="F41">
-        <v>-0.0313394951299792</v>
+        <v>0.01537321551080649</v>
       </c>
       <c r="G41">
-        <v>-0.02183178679542989</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.038983179048345</v>
+      </c>
+      <c r="H41">
+        <v>-0.03115905545072595</v>
+      </c>
+      <c r="I41">
+        <v>-0.01781264417876015</v>
+      </c>
+      <c r="J41">
+        <v>0.013017399790517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1166607024437345</v>
+        <v>0.2136334138397496</v>
       </c>
       <c r="C42">
-        <v>0.2020056104345395</v>
+        <v>0.1532645195039721</v>
       </c>
       <c r="D42">
-        <v>0.9228658265998944</v>
+        <v>0.01839790743898937</v>
       </c>
       <c r="E42">
-        <v>0.1214352926101835</v>
+        <v>-0.9349669383266039</v>
       </c>
       <c r="F42">
-        <v>0.04333572627274796</v>
+        <v>-0.1625444561653494</v>
       </c>
       <c r="G42">
-        <v>-0.0723590070977837</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.009113419523527485</v>
+      </c>
+      <c r="H42">
+        <v>-0.002289664064197223</v>
+      </c>
+      <c r="I42">
+        <v>-0.04628093299186715</v>
+      </c>
+      <c r="J42">
+        <v>0.02678848813080886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008271241100311402</v>
+        <v>0.004805815299142904</v>
       </c>
       <c r="C43">
-        <v>0.01722305015548628</v>
+        <v>0.0152595819826109</v>
       </c>
       <c r="D43">
-        <v>-0.01359470603512609</v>
+        <v>-0.003634450583486969</v>
       </c>
       <c r="E43">
-        <v>-0.03564047969172402</v>
+        <v>0.00560940873864099</v>
       </c>
       <c r="F43">
-        <v>-0.007525096840015245</v>
+        <v>0.02838063852940368</v>
       </c>
       <c r="G43">
-        <v>-0.01967822285157489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02249056795672962</v>
+      </c>
+      <c r="H43">
+        <v>-0.03182230233978818</v>
+      </c>
+      <c r="I43">
+        <v>-0.0110580906674708</v>
+      </c>
+      <c r="J43">
+        <v>0.02275006205751725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03911321264954036</v>
+        <v>0.02817678547212549</v>
       </c>
       <c r="C44">
-        <v>0.04144103497136518</v>
+        <v>0.04029946397495779</v>
       </c>
       <c r="D44">
-        <v>-0.003687390060396019</v>
+        <v>-0.01693565957714006</v>
       </c>
       <c r="E44">
-        <v>-0.1204674466336111</v>
+        <v>0.003663625295898121</v>
       </c>
       <c r="F44">
-        <v>-0.09129600323550895</v>
+        <v>0.1234257808092624</v>
       </c>
       <c r="G44">
-        <v>-0.02259453963144027</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06255705376711668</v>
+      </c>
+      <c r="H44">
+        <v>-0.09993784085271584</v>
+      </c>
+      <c r="I44">
+        <v>-0.02661537868080333</v>
+      </c>
+      <c r="J44">
+        <v>0.03091037262881076</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02692064254098383</v>
+        <v>0.02468231668685819</v>
       </c>
       <c r="C46">
-        <v>0.01565140770997114</v>
+        <v>0.0342001584909295</v>
       </c>
       <c r="D46">
-        <v>-0.02408457855786069</v>
+        <v>-0.01084492899184571</v>
       </c>
       <c r="E46">
-        <v>-0.02455270353936821</v>
+        <v>0.02362182789391712</v>
       </c>
       <c r="F46">
-        <v>-0.02557152329484251</v>
+        <v>0.04697394850233207</v>
       </c>
       <c r="G46">
-        <v>-0.02707666222078908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0287219378764282</v>
+      </c>
+      <c r="H46">
+        <v>-0.05229790101059095</v>
+      </c>
+      <c r="I46">
+        <v>0.00196002241684189</v>
+      </c>
+      <c r="J46">
+        <v>0.02130678306727905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08643524649804869</v>
+        <v>0.0917281500477912</v>
       </c>
       <c r="C47">
-        <v>0.01105320493237492</v>
+        <v>0.01971457532993989</v>
       </c>
       <c r="D47">
-        <v>-0.02006991626161484</v>
+        <v>0.001027776925737372</v>
       </c>
       <c r="E47">
-        <v>0.01931071213062939</v>
+        <v>0.02331081238324125</v>
       </c>
       <c r="F47">
-        <v>-0.01304000230266375</v>
+        <v>-0.01009041502123995</v>
       </c>
       <c r="G47">
-        <v>-0.0303330617867827</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04783492729008475</v>
+      </c>
+      <c r="H47">
+        <v>-0.05300899430391631</v>
+      </c>
+      <c r="I47">
+        <v>-0.01292798365784526</v>
+      </c>
+      <c r="J47">
+        <v>0.02451592873935511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01737155066559385</v>
+        <v>0.01847101358241801</v>
       </c>
       <c r="C48">
-        <v>0.0202351958747813</v>
+        <v>0.01968935530324095</v>
       </c>
       <c r="D48">
-        <v>-0.0143490149557714</v>
+        <v>-0.009196554081656665</v>
       </c>
       <c r="E48">
-        <v>-0.03028070217088508</v>
+        <v>0.01050912540872177</v>
       </c>
       <c r="F48">
-        <v>-0.01038089289133484</v>
+        <v>0.03081896665819676</v>
       </c>
       <c r="G48">
-        <v>-0.004039262319251624</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01612334406609279</v>
+      </c>
+      <c r="H48">
+        <v>-0.02314837093920203</v>
+      </c>
+      <c r="I48">
+        <v>-0.009054704444386823</v>
+      </c>
+      <c r="J48">
+        <v>0.01372001826206148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08662688031758763</v>
+        <v>0.0880906469959999</v>
       </c>
       <c r="C50">
-        <v>0.03424991780523789</v>
+        <v>0.03198515139011555</v>
       </c>
       <c r="D50">
-        <v>-0.02422876936952461</v>
+        <v>-0.02108613337404667</v>
       </c>
       <c r="E50">
-        <v>0.01380233708792043</v>
+        <v>0.01974532274363357</v>
       </c>
       <c r="F50">
-        <v>-0.002155679412913534</v>
+        <v>-0.003329190098675677</v>
       </c>
       <c r="G50">
-        <v>-0.0385937814629594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.006886856526228669</v>
+      </c>
+      <c r="H50">
+        <v>-0.04084654685916893</v>
+      </c>
+      <c r="I50">
+        <v>0.01449719067937758</v>
+      </c>
+      <c r="J50">
+        <v>0.004456832736145467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06773357567497772</v>
+        <v>0.04660771182992906</v>
       </c>
       <c r="C51">
-        <v>-0.01955852655205402</v>
+        <v>0.005426384683887129</v>
       </c>
       <c r="D51">
-        <v>0.00919908211161026</v>
+        <v>0.01352163643638074</v>
       </c>
       <c r="E51">
-        <v>-0.08361589715941628</v>
+        <v>0.009177336626408459</v>
       </c>
       <c r="F51">
-        <v>-0.05548808024357271</v>
+        <v>0.09631669415343183</v>
       </c>
       <c r="G51">
-        <v>-0.05916043208738538</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05663659900955806</v>
+      </c>
+      <c r="H51">
+        <v>-0.04476267044079364</v>
+      </c>
+      <c r="I51">
+        <v>-0.01994796534409717</v>
+      </c>
+      <c r="J51">
+        <v>0.04390838075659304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1455683277298249</v>
+        <v>0.1276587587450021</v>
       </c>
       <c r="C53">
-        <v>0.0115730059269933</v>
+        <v>0.03692009392497145</v>
       </c>
       <c r="D53">
-        <v>-0.0439815209296797</v>
+        <v>-0.003917558018901398</v>
       </c>
       <c r="E53">
-        <v>0.04130574099148163</v>
+        <v>0.04578675921217715</v>
       </c>
       <c r="F53">
-        <v>0.004777943070150582</v>
+        <v>-0.03993273679805892</v>
       </c>
       <c r="G53">
-        <v>-0.03604896897920523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02646574167923393</v>
+      </c>
+      <c r="H53">
+        <v>0.002875665797351815</v>
+      </c>
+      <c r="I53">
+        <v>-0.03241199022984071</v>
+      </c>
+      <c r="J53">
+        <v>0.03426609056188484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02970238533729106</v>
+        <v>0.02547997081451069</v>
       </c>
       <c r="C54">
-        <v>-0.002397045907025435</v>
+        <v>0.004134793720235887</v>
       </c>
       <c r="D54">
-        <v>-0.02799187281044298</v>
+        <v>-0.00654678437515372</v>
       </c>
       <c r="E54">
-        <v>-0.03039704365373426</v>
+        <v>0.0240807632461597</v>
       </c>
       <c r="F54">
-        <v>-0.04716852410291593</v>
+        <v>0.03893523841167297</v>
       </c>
       <c r="G54">
-        <v>-0.003631949714305058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05298090674738198</v>
+      </c>
+      <c r="H54">
+        <v>-0.04085699638785977</v>
+      </c>
+      <c r="I54">
+        <v>-0.02801045204593218</v>
+      </c>
+      <c r="J54">
+        <v>0.0007861750377328963</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09906038153929177</v>
+        <v>0.1015415372582699</v>
       </c>
       <c r="C55">
-        <v>-0.00400613615286526</v>
+        <v>0.01739124669017174</v>
       </c>
       <c r="D55">
-        <v>-0.03634626076217975</v>
+        <v>-0.01726717944192277</v>
       </c>
       <c r="E55">
-        <v>0.006439669737961789</v>
+        <v>0.03042913299614083</v>
       </c>
       <c r="F55">
-        <v>0.03709803120762748</v>
+        <v>-0.02893881930029037</v>
       </c>
       <c r="G55">
-        <v>0.02073487570800704</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005454052674516784</v>
+      </c>
+      <c r="H55">
+        <v>-0.01437427876493582</v>
+      </c>
+      <c r="I55">
+        <v>-0.01329175997016281</v>
+      </c>
+      <c r="J55">
+        <v>0.03313143325949865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1799600709742003</v>
+        <v>0.1701135864447248</v>
       </c>
       <c r="C56">
-        <v>-0.01122346400244543</v>
+        <v>0.01861318561297306</v>
       </c>
       <c r="D56">
-        <v>-0.08311433496772812</v>
+        <v>-0.005431195774415815</v>
       </c>
       <c r="E56">
-        <v>0.08564001976893959</v>
+        <v>0.08378785536471003</v>
       </c>
       <c r="F56">
-        <v>0.0781904359345867</v>
+        <v>-0.0860059997718276</v>
       </c>
       <c r="G56">
-        <v>-0.004182378653369129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0261622051168766</v>
+      </c>
+      <c r="H56">
+        <v>0.04129876757994438</v>
+      </c>
+      <c r="I56">
+        <v>-0.02582634540805931</v>
+      </c>
+      <c r="J56">
+        <v>0.04543275210013609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.0943554224492157</v>
+        <v>0.07261096584805507</v>
       </c>
       <c r="C57">
-        <v>0.02737952416284613</v>
+        <v>0.03818673609190239</v>
       </c>
       <c r="D57">
-        <v>-0.01738764011711456</v>
+        <v>0.004782071820293069</v>
       </c>
       <c r="E57">
-        <v>-0.04558280701399131</v>
+        <v>0.01105754060699437</v>
       </c>
       <c r="F57">
-        <v>-0.02442955461452584</v>
+        <v>0.06055200892412035</v>
       </c>
       <c r="G57">
-        <v>-0.02056211606782654</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02405458199326136</v>
+      </c>
+      <c r="H57">
+        <v>-0.02595528473035089</v>
+      </c>
+      <c r="I57">
+        <v>0.002569468045761925</v>
+      </c>
+      <c r="J57">
+        <v>0.04182958786914653</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1791055973457573</v>
+        <v>0.2029471456290509</v>
       </c>
       <c r="C58">
-        <v>0.01663779358906024</v>
+        <v>0.1112705654869822</v>
       </c>
       <c r="D58">
-        <v>0.04906548768968198</v>
+        <v>0.05588324616356972</v>
       </c>
       <c r="E58">
-        <v>-0.1192891695379755</v>
+        <v>-0.01333962003710149</v>
       </c>
       <c r="F58">
-        <v>0.06644061474098498</v>
+        <v>0.2344935396942548</v>
       </c>
       <c r="G58">
-        <v>-0.02017080714133262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1508929825689818</v>
+      </c>
+      <c r="H58">
+        <v>-0.3778484863375733</v>
+      </c>
+      <c r="I58">
+        <v>0.07328105427651474</v>
+      </c>
+      <c r="J58">
+        <v>-0.7649388136954911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01243467736090185</v>
+        <v>0.03905898609032191</v>
       </c>
       <c r="C59">
-        <v>-0.2023630702705582</v>
+        <v>-0.1758612178980788</v>
       </c>
       <c r="D59">
-        <v>-0.006407784959661661</v>
+        <v>0.09019914337031444</v>
       </c>
       <c r="E59">
-        <v>-0.05751286512480872</v>
+        <v>0.008493542367601132</v>
       </c>
       <c r="F59">
-        <v>-0.01216747173754942</v>
+        <v>0.0725891169608176</v>
       </c>
       <c r="G59">
-        <v>-0.00638041329779401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004418843741050099</v>
+      </c>
+      <c r="H59">
+        <v>0.02051664730963539</v>
+      </c>
+      <c r="I59">
+        <v>-0.05871095516027893</v>
+      </c>
+      <c r="J59">
+        <v>-0.01226591757444893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1872695286781632</v>
+        <v>0.1835883445258124</v>
       </c>
       <c r="C60">
-        <v>-0.1025166665375793</v>
+        <v>-0.02861694397715387</v>
       </c>
       <c r="D60">
-        <v>-0.0007423872241038444</v>
+        <v>0.06619777718559104</v>
       </c>
       <c r="E60">
-        <v>-0.1872660439305977</v>
+        <v>0.01266367513178063</v>
       </c>
       <c r="F60">
-        <v>-0.05372806251520703</v>
+        <v>0.2042847561824795</v>
       </c>
       <c r="G60">
-        <v>-0.01863662436906736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09295977520624957</v>
+      </c>
+      <c r="H60">
+        <v>0.2612990107072109</v>
+      </c>
+      <c r="I60">
+        <v>0.09166982969648696</v>
+      </c>
+      <c r="J60">
+        <v>0.01010060237928407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05039819737688194</v>
+        <v>0.03900426620406582</v>
       </c>
       <c r="C61">
-        <v>0.002166676132927634</v>
+        <v>0.02353763354421248</v>
       </c>
       <c r="D61">
-        <v>0.008648297412232699</v>
+        <v>-0.00861118582973318</v>
       </c>
       <c r="E61">
-        <v>-0.03831580516494817</v>
+        <v>0.002476435431939872</v>
       </c>
       <c r="F61">
-        <v>-0.008466877586816742</v>
+        <v>0.03994279426419717</v>
       </c>
       <c r="G61">
-        <v>-0.004951510558190602</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.00877796320452473</v>
+      </c>
+      <c r="H61">
+        <v>0.0008798991447932401</v>
+      </c>
+      <c r="I61">
+        <v>0.03840945496600271</v>
+      </c>
+      <c r="J61">
+        <v>0.02187598338504965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0478130483525142</v>
+        <v>0.03195828533829567</v>
       </c>
       <c r="C63">
-        <v>-0.002544782136539051</v>
+        <v>0.01838493773679415</v>
       </c>
       <c r="D63">
-        <v>-0.01260504442053433</v>
+        <v>-0.004900658752014487</v>
       </c>
       <c r="E63">
-        <v>-0.03251639788345378</v>
+        <v>0.01316658511132218</v>
       </c>
       <c r="F63">
-        <v>-0.004712790306120359</v>
+        <v>0.02803472808017755</v>
       </c>
       <c r="G63">
-        <v>-0.01202582807706823</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01844853958155631</v>
+      </c>
+      <c r="H63">
+        <v>-0.0413608999280928</v>
+      </c>
+      <c r="I63">
+        <v>-0.02362056604172189</v>
+      </c>
+      <c r="J63">
+        <v>0.03461153817234609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08339094275588282</v>
+        <v>0.05628911595347676</v>
       </c>
       <c r="C64">
-        <v>0.04607455904925453</v>
+        <v>0.04275850164592253</v>
       </c>
       <c r="D64">
-        <v>-0.05694709680608127</v>
+        <v>-0.0312188568026327</v>
       </c>
       <c r="E64">
-        <v>-0.06547771513064264</v>
+        <v>0.03684320449738312</v>
       </c>
       <c r="F64">
-        <v>-0.0619702182945621</v>
+        <v>0.05308625630938912</v>
       </c>
       <c r="G64">
-        <v>0.02175473260178751</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05557228131041451</v>
+      </c>
+      <c r="H64">
+        <v>0.006976544599267348</v>
+      </c>
+      <c r="I64">
+        <v>-0.01829909860789003</v>
+      </c>
+      <c r="J64">
+        <v>0.09859537048520355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01920546552641965</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.007209345718727674</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009769853926999687</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004066949736213627</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001225999402262691</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02235593243753378</v>
+      </c>
+      <c r="H65">
+        <v>-0.0005003799093182741</v>
+      </c>
+      <c r="I65">
+        <v>0.01318135766032669</v>
+      </c>
+      <c r="J65">
+        <v>0.002024095732652311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09421055194944532</v>
+        <v>0.06953405605559757</v>
       </c>
       <c r="C66">
-        <v>0.02647311112183258</v>
+        <v>0.05790928635796039</v>
       </c>
       <c r="D66">
-        <v>-0.03066895936007432</v>
+        <v>-0.006621620236613005</v>
       </c>
       <c r="E66">
-        <v>-0.07902733932716773</v>
+        <v>0.03997200274292614</v>
       </c>
       <c r="F66">
-        <v>-0.04545957446875253</v>
+        <v>0.07150699334855383</v>
       </c>
       <c r="G66">
-        <v>-0.01810847023266172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01632870437045369</v>
+      </c>
+      <c r="H66">
+        <v>0.002354250664638591</v>
+      </c>
+      <c r="I66">
+        <v>0.04930683067470237</v>
+      </c>
+      <c r="J66">
+        <v>0.06844700069540083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06226424452640131</v>
+        <v>0.04619865306446942</v>
       </c>
       <c r="C67">
-        <v>-0.01390105005087723</v>
+        <v>-0.001953383296697478</v>
       </c>
       <c r="D67">
-        <v>-0.006619325484760914</v>
+        <v>0.002774656980436287</v>
       </c>
       <c r="E67">
-        <v>-0.03174721675067443</v>
+        <v>0.008095880642601009</v>
       </c>
       <c r="F67">
-        <v>-0.005462951546126513</v>
+        <v>0.04054835987318719</v>
       </c>
       <c r="G67">
-        <v>0.03735784258154099</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03263164106065393</v>
+      </c>
+      <c r="H67">
+        <v>0.008569566621735154</v>
+      </c>
+      <c r="I67">
+        <v>0.04042048483480231</v>
+      </c>
+      <c r="J67">
+        <v>0.01028985723008371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01224910608741188</v>
+        <v>0.0443200429749934</v>
       </c>
       <c r="C68">
-        <v>-0.2483646197503827</v>
+        <v>-0.2163748887473192</v>
       </c>
       <c r="D68">
-        <v>0.0104689991124014</v>
+        <v>0.1033327033171529</v>
       </c>
       <c r="E68">
-        <v>-0.04117433822527128</v>
+        <v>-0.004978266291173057</v>
       </c>
       <c r="F68">
-        <v>-0.005793172390173565</v>
+        <v>0.05683026656158007</v>
       </c>
       <c r="G68">
-        <v>-0.02050718289087423</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.00148134387940604</v>
+      </c>
+      <c r="H68">
+        <v>0.01448103607029522</v>
+      </c>
+      <c r="I68">
+        <v>-0.1728700208388534</v>
+      </c>
+      <c r="J68">
+        <v>-0.04827107727127185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07223572351887728</v>
+        <v>0.07240381421966685</v>
       </c>
       <c r="C69">
-        <v>0.01510951405576861</v>
+        <v>0.02343205133058714</v>
       </c>
       <c r="D69">
-        <v>-0.02160994306289114</v>
+        <v>-0.001330146851259322</v>
       </c>
       <c r="E69">
-        <v>0.01028674684578988</v>
+        <v>0.02797025188554746</v>
       </c>
       <c r="F69">
-        <v>-0.003222591295929791</v>
+        <v>-0.00011987305966248</v>
       </c>
       <c r="G69">
-        <v>-0.02748818283755783</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02937838422677948</v>
+      </c>
+      <c r="H69">
+        <v>-0.0260529472844833</v>
+      </c>
+      <c r="I69">
+        <v>0.01004178806746608</v>
+      </c>
+      <c r="J69">
+        <v>0.03008280548726093</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01219423525286274</v>
+        <v>0.05128644350985342</v>
       </c>
       <c r="C71">
-        <v>-0.2728929569794739</v>
+        <v>-0.2255231239916584</v>
       </c>
       <c r="D71">
-        <v>0.01519078285926784</v>
+        <v>0.1149116291582312</v>
       </c>
       <c r="E71">
-        <v>-0.08254661028390384</v>
+        <v>-0.02264978680711221</v>
       </c>
       <c r="F71">
-        <v>-0.02112717273986254</v>
+        <v>0.08287389579267483</v>
       </c>
       <c r="G71">
-        <v>-0.03521406849251752</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01473165498637156</v>
+      </c>
+      <c r="H71">
+        <v>0.03325934567839642</v>
+      </c>
+      <c r="I71">
+        <v>-0.1245085240253057</v>
+      </c>
+      <c r="J71">
+        <v>-0.01621368519370222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1161531457629505</v>
+        <v>0.1212619185001912</v>
       </c>
       <c r="C72">
-        <v>-0.004934653005290149</v>
+        <v>0.03038053172591829</v>
       </c>
       <c r="D72">
-        <v>-0.03127785597662329</v>
+        <v>-0.002407242568769207</v>
       </c>
       <c r="E72">
-        <v>-0.1027683386217108</v>
+        <v>0.05601117986151933</v>
       </c>
       <c r="F72">
-        <v>0.00867259101477574</v>
+        <v>0.08540200940226829</v>
       </c>
       <c r="G72">
-        <v>0.02531306800158628</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04795065130688927</v>
+      </c>
+      <c r="H72">
+        <v>-0.001716629051669975</v>
+      </c>
+      <c r="I72">
+        <v>0.05349741465227639</v>
+      </c>
+      <c r="J72">
+        <v>-0.08734936857140828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2841278930088654</v>
+        <v>0.2675743419149185</v>
       </c>
       <c r="C73">
-        <v>-0.1691553023306436</v>
+        <v>-0.04695355910804938</v>
       </c>
       <c r="D73">
-        <v>0.0713134640005413</v>
+        <v>0.1227527520123601</v>
       </c>
       <c r="E73">
-        <v>-0.3330992495343133</v>
+        <v>-0.02982131447655691</v>
       </c>
       <c r="F73">
-        <v>-0.05170481524358873</v>
+        <v>0.3111705908001091</v>
       </c>
       <c r="G73">
-        <v>-0.009316082596294212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2022242026990829</v>
+      </c>
+      <c r="H73">
+        <v>0.4543850777034959</v>
+      </c>
+      <c r="I73">
+        <v>0.3103076550545863</v>
+      </c>
+      <c r="J73">
+        <v>0.00751915264925561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1622379853101759</v>
+        <v>0.1532572066518905</v>
       </c>
       <c r="C74">
-        <v>-0.003282749424394436</v>
+        <v>0.02856361519016145</v>
       </c>
       <c r="D74">
-        <v>-0.04095276996553945</v>
+        <v>0.00580610314734288</v>
       </c>
       <c r="E74">
-        <v>0.01753998675490905</v>
+        <v>0.04586493564794246</v>
       </c>
       <c r="F74">
-        <v>0.05805825464282819</v>
+        <v>-0.05443352347976782</v>
       </c>
       <c r="G74">
-        <v>-0.05467974842023521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01833144098057157</v>
+      </c>
+      <c r="H74">
+        <v>0.02960641500204377</v>
+      </c>
+      <c r="I74">
+        <v>-0.006687748218507135</v>
+      </c>
+      <c r="J74">
+        <v>0.08482786977305676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2358246564516727</v>
+        <v>0.2454467358536637</v>
       </c>
       <c r="C75">
-        <v>-0.01155364184162429</v>
+        <v>0.02997754912675938</v>
       </c>
       <c r="D75">
-        <v>-0.07453767720102585</v>
+        <v>0.02026503402927753</v>
       </c>
       <c r="E75">
-        <v>0.1222866793544081</v>
+        <v>0.105341946112641</v>
       </c>
       <c r="F75">
-        <v>0.04414407701601056</v>
+        <v>-0.1445319837383651</v>
       </c>
       <c r="G75">
-        <v>-0.04429578041615229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004734698300309334</v>
+      </c>
+      <c r="H75">
+        <v>0.02408677980120208</v>
+      </c>
+      <c r="I75">
+        <v>-0.08789614701074737</v>
+      </c>
+      <c r="J75">
+        <v>0.02848722336355686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2471860869393592</v>
+        <v>0.2681942895030416</v>
       </c>
       <c r="C76">
-        <v>-0.01178866996845031</v>
+        <v>0.01647907818616476</v>
       </c>
       <c r="D76">
-        <v>-0.1108589288040185</v>
+        <v>-0.01412324551668108</v>
       </c>
       <c r="E76">
-        <v>0.1173532152973048</v>
+        <v>0.1288265919481317</v>
       </c>
       <c r="F76">
-        <v>0.07127807320751094</v>
+        <v>-0.1770580876768749</v>
       </c>
       <c r="G76">
-        <v>-0.04449948592366197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04661118702361409</v>
+      </c>
+      <c r="H76">
+        <v>0.04486825761576753</v>
+      </c>
+      <c r="I76">
+        <v>-0.02089256351169234</v>
+      </c>
+      <c r="J76">
+        <v>0.06818578270276691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1329592141852647</v>
+        <v>0.1299007621888285</v>
       </c>
       <c r="C77">
-        <v>0.02549990218988804</v>
+        <v>0.06429033869193632</v>
       </c>
       <c r="D77">
-        <v>0.05524750773852834</v>
+        <v>-0.01270713777818685</v>
       </c>
       <c r="E77">
-        <v>-0.145393712280538</v>
+        <v>-0.04395179118783346</v>
       </c>
       <c r="F77">
-        <v>-0.002452871412293885</v>
+        <v>0.1609434375221903</v>
       </c>
       <c r="G77">
-        <v>0.06700729697161348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01208647129564903</v>
+      </c>
+      <c r="H77">
+        <v>-0.200164617941757</v>
+      </c>
+      <c r="I77">
+        <v>-0.1828260680428395</v>
+      </c>
+      <c r="J77">
+        <v>0.1110024901968533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08558759050203478</v>
+        <v>0.08057436741521705</v>
       </c>
       <c r="C78">
-        <v>0.04246562444272442</v>
+        <v>0.0695727519263602</v>
       </c>
       <c r="D78">
-        <v>0.02267088258725735</v>
+        <v>-0.03099458983503613</v>
       </c>
       <c r="E78">
-        <v>-0.05170862151155926</v>
+        <v>-0.0003458842076446505</v>
       </c>
       <c r="F78">
-        <v>-0.01313670400048203</v>
+        <v>0.07403215394985302</v>
       </c>
       <c r="G78">
-        <v>-0.01440802790809335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01005699741735524</v>
+      </c>
+      <c r="H78">
+        <v>-0.02766266916334518</v>
+      </c>
+      <c r="I78">
+        <v>-0.02218889032153267</v>
+      </c>
+      <c r="J78">
+        <v>0.04761714974856705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06705658585877274</v>
+        <v>0.1524528510740805</v>
       </c>
       <c r="C80">
-        <v>0.0234997429640315</v>
+        <v>-0.3998384522093502</v>
       </c>
       <c r="D80">
-        <v>0.01642096520761923</v>
+        <v>-0.8858973503161446</v>
       </c>
       <c r="E80">
-        <v>0.0234389318350938</v>
+        <v>-0.06695303732922658</v>
       </c>
       <c r="F80">
-        <v>0.1579151192946356</v>
+        <v>0.04969873556203668</v>
       </c>
       <c r="G80">
-        <v>0.9291912570804577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.042751273251365</v>
+      </c>
+      <c r="H80">
+        <v>0.05619276389023826</v>
+      </c>
+      <c r="I80">
+        <v>0.02317000740455265</v>
+      </c>
+      <c r="J80">
+        <v>-0.1020514552745822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1636846075055527</v>
+        <v>0.1796605579043839</v>
       </c>
       <c r="C81">
-        <v>-0.01183819390845728</v>
+        <v>0.00869226524155539</v>
       </c>
       <c r="D81">
-        <v>-0.06270589201531826</v>
+        <v>0.00530050726727049</v>
       </c>
       <c r="E81">
-        <v>0.1539484199593878</v>
+        <v>0.08473153555774844</v>
       </c>
       <c r="F81">
-        <v>0.1033620440740113</v>
+        <v>-0.160940982768486</v>
       </c>
       <c r="G81">
-        <v>-0.0422222654924146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02734661487690808</v>
+      </c>
+      <c r="H81">
+        <v>0.01135240201723809</v>
+      </c>
+      <c r="I81">
+        <v>-0.05361143295432846</v>
+      </c>
+      <c r="J81">
+        <v>0.009953857475599695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09154863404017817</v>
+        <v>0.06875005597496625</v>
       </c>
       <c r="C83">
-        <v>0.04627417755106089</v>
+        <v>0.04893359410983811</v>
       </c>
       <c r="D83">
-        <v>0.08289838437904014</v>
+        <v>-0.00168510615691914</v>
       </c>
       <c r="E83">
-        <v>-0.0068601638900036</v>
+        <v>-0.04239874956356845</v>
       </c>
       <c r="F83">
-        <v>-0.05958464666327579</v>
+        <v>0.04604846686789762</v>
       </c>
       <c r="G83">
-        <v>-0.01356553117854169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06038670924668006</v>
+      </c>
+      <c r="H83">
+        <v>-0.01612363571949806</v>
+      </c>
+      <c r="I83">
+        <v>-0.01749212050337707</v>
+      </c>
+      <c r="J83">
+        <v>0.07954625359714047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.232360613987427</v>
+        <v>0.2511138065089399</v>
       </c>
       <c r="C85">
-        <v>0.05153579456750868</v>
+        <v>0.05335847435463836</v>
       </c>
       <c r="D85">
-        <v>-0.07302542939480697</v>
+        <v>-0.01216909528704318</v>
       </c>
       <c r="E85">
-        <v>0.1427030732085789</v>
+        <v>0.08650765911338267</v>
       </c>
       <c r="F85">
-        <v>0.06190889004650436</v>
+        <v>-0.1804834204849656</v>
       </c>
       <c r="G85">
-        <v>-0.02063212830475871</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.006491316933632457</v>
+      </c>
+      <c r="H85">
+        <v>-0.01786330853487286</v>
+      </c>
+      <c r="I85">
+        <v>-0.0521572071279977</v>
+      </c>
+      <c r="J85">
+        <v>0.08367087486227069</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04458018526964927</v>
+        <v>0.02684128662460051</v>
       </c>
       <c r="C86">
-        <v>0.04912070905967505</v>
+        <v>0.06162310942638705</v>
       </c>
       <c r="D86">
-        <v>-0.007993985605855241</v>
+        <v>-0.02473891869278351</v>
       </c>
       <c r="E86">
-        <v>-0.06316914641795517</v>
+        <v>0.007201890388085684</v>
       </c>
       <c r="F86">
-        <v>-0.001303535281447068</v>
+        <v>0.06893934482308851</v>
       </c>
       <c r="G86">
-        <v>-0.03005338795640161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005861058739321802</v>
+      </c>
+      <c r="H86">
+        <v>-0.06380711676163436</v>
+      </c>
+      <c r="I86">
+        <v>-0.02488788082001349</v>
+      </c>
+      <c r="J86">
+        <v>0.04277228572497292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02370483451090502</v>
+        <v>0.03445726039936251</v>
       </c>
       <c r="C87">
-        <v>-0.05219102417177005</v>
+        <v>-0.01125670303276088</v>
       </c>
       <c r="D87">
-        <v>-0.0004184809722312384</v>
+        <v>0.009996030537255595</v>
       </c>
       <c r="E87">
-        <v>-0.0948790031514913</v>
+        <v>0.002935797651947612</v>
       </c>
       <c r="F87">
-        <v>0.01364297613055544</v>
+        <v>0.1012363049663875</v>
       </c>
       <c r="G87">
-        <v>-0.03568080310931084</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02135384273335925</v>
+      </c>
+      <c r="H87">
+        <v>-0.01874712502495193</v>
+      </c>
+      <c r="I87">
+        <v>0.01991161660076786</v>
+      </c>
+      <c r="J87">
+        <v>0.01340233332753708</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03986847542502873</v>
+        <v>0.02794449428160678</v>
       </c>
       <c r="C88">
-        <v>0.03408163381497168</v>
+        <v>0.01707080306204287</v>
       </c>
       <c r="D88">
-        <v>-0.008331961348395795</v>
+        <v>-0.0193288942828342</v>
       </c>
       <c r="E88">
-        <v>0.01059722650973542</v>
+        <v>0.01410090773366448</v>
       </c>
       <c r="F88">
-        <v>0.01049973909041763</v>
+        <v>-0.01124034279470772</v>
       </c>
       <c r="G88">
-        <v>-0.009086083797399986</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03954367450564338</v>
+      </c>
+      <c r="H88">
+        <v>-0.0374871848945969</v>
+      </c>
+      <c r="I88">
+        <v>0.02867823868841702</v>
+      </c>
+      <c r="J88">
+        <v>0.03210528483317453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.004004037388847438</v>
+        <v>0.06608953939697494</v>
       </c>
       <c r="C89">
-        <v>-0.4145525336873719</v>
+        <v>-0.349117867330993</v>
       </c>
       <c r="D89">
-        <v>0.09205125690557774</v>
+        <v>0.1849627731491792</v>
       </c>
       <c r="E89">
-        <v>0.01133108717537913</v>
+        <v>-0.03772476944285389</v>
       </c>
       <c r="F89">
-        <v>-0.01085685941382992</v>
+        <v>0.04124384247922855</v>
       </c>
       <c r="G89">
-        <v>-0.02331850485982311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04733558565350952</v>
+      </c>
+      <c r="H89">
+        <v>-0.0372895104582549</v>
+      </c>
+      <c r="I89">
+        <v>-0.2678566977605399</v>
+      </c>
+      <c r="J89">
+        <v>-0.0500407387191589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.0006483150946409483</v>
+        <v>0.04628694851099229</v>
       </c>
       <c r="C90">
-        <v>-0.3096272160287493</v>
+        <v>-0.3058711467883212</v>
       </c>
       <c r="D90">
-        <v>0.03168150580443811</v>
+        <v>0.1431232035856992</v>
       </c>
       <c r="E90">
-        <v>-0.04141001852895108</v>
+        <v>-0.02589090179022529</v>
       </c>
       <c r="F90">
-        <v>-0.0163726210579773</v>
+        <v>0.0358080546805802</v>
       </c>
       <c r="G90">
-        <v>-0.03833889392121288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02614504159030475</v>
+      </c>
+      <c r="H90">
+        <v>-0.001757435445608653</v>
+      </c>
+      <c r="I90">
+        <v>-0.2293586117530601</v>
+      </c>
+      <c r="J90">
+        <v>-0.0185881296387478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2905141119177562</v>
+        <v>0.3039056860771542</v>
       </c>
       <c r="C91">
-        <v>0.01996503557877417</v>
+        <v>0.0384723610821063</v>
       </c>
       <c r="D91">
-        <v>-0.08842884083883619</v>
+        <v>0.003157881789356339</v>
       </c>
       <c r="E91">
-        <v>0.2921968525146321</v>
+        <v>0.09435251175250621</v>
       </c>
       <c r="F91">
-        <v>0.1385054493560725</v>
+        <v>-0.296800765564715</v>
       </c>
       <c r="G91">
-        <v>0.03707443808449683</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03230883650351133</v>
+      </c>
+      <c r="H91">
+        <v>0.01087697183539513</v>
+      </c>
+      <c r="I91">
+        <v>-0.1255030102832454</v>
+      </c>
+      <c r="J91">
+        <v>0.07074626335312063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.00815557663281115</v>
+        <v>0.1027228400123614</v>
       </c>
       <c r="C92">
-        <v>-0.4270714476025607</v>
+        <v>-0.4117829760021649</v>
       </c>
       <c r="D92">
-        <v>0.1976627962980305</v>
+        <v>0.1673926440689699</v>
       </c>
       <c r="E92">
-        <v>0.1511048201061365</v>
+        <v>-0.05610438253892884</v>
       </c>
       <c r="F92">
-        <v>0.07684395253681561</v>
+        <v>-0.1151203558302079</v>
       </c>
       <c r="G92">
-        <v>0.1484888291278457</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1143939624273093</v>
+      </c>
+      <c r="H92">
+        <v>-0.4447832101325288</v>
+      </c>
+      <c r="I92">
+        <v>0.6900500561867629</v>
+      </c>
+      <c r="J92">
+        <v>0.2378063878515636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01086830813356601</v>
+        <v>0.05104135865894386</v>
       </c>
       <c r="C93">
-        <v>-0.371311246488672</v>
+        <v>-0.3643793838725652</v>
       </c>
       <c r="D93">
-        <v>0.06966136614499142</v>
+        <v>0.18587228712401</v>
       </c>
       <c r="E93">
-        <v>0.03060355918540003</v>
+        <v>-0.05455554086266813</v>
       </c>
       <c r="F93">
-        <v>0.009982234575919067</v>
+        <v>0.006500083835348009</v>
       </c>
       <c r="G93">
-        <v>0.03819918613887155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03481062537107714</v>
+      </c>
+      <c r="H93">
+        <v>0.02791159338242111</v>
+      </c>
+      <c r="I93">
+        <v>-0.1756435380501428</v>
+      </c>
+      <c r="J93">
+        <v>-0.04900192989209225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2763454701592061</v>
+        <v>0.3050030653113279</v>
       </c>
       <c r="C94">
-        <v>-0.06650866675805052</v>
+        <v>0.002067212471880583</v>
       </c>
       <c r="D94">
-        <v>-0.04448410750231661</v>
+        <v>0.04604180598487182</v>
       </c>
       <c r="E94">
-        <v>0.3458953046416133</v>
+        <v>0.1354620098126962</v>
       </c>
       <c r="F94">
-        <v>0.398390044307286</v>
+        <v>-0.3371706507553548</v>
       </c>
       <c r="G94">
-        <v>-0.1500786596586622</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1890267050017782</v>
+      </c>
+      <c r="H94">
+        <v>-0.151791111287918</v>
+      </c>
+      <c r="I94">
+        <v>-0.02117060592630276</v>
+      </c>
+      <c r="J94">
+        <v>-0.1691367531683144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1995378521953663</v>
+        <v>0.1297964512331958</v>
       </c>
       <c r="C95">
-        <v>-0.02333489950651934</v>
+        <v>0.08586333224066943</v>
       </c>
       <c r="D95">
-        <v>-0.004695663235360929</v>
+        <v>0.07172884199976601</v>
       </c>
       <c r="E95">
-        <v>0.4025525950774277</v>
+        <v>0.0245299970532405</v>
       </c>
       <c r="F95">
-        <v>-0.8314207081507906</v>
+        <v>-0.06452255516680855</v>
       </c>
       <c r="G95">
-        <v>0.1140479500677163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8876076490031407</v>
+      </c>
+      <c r="H95">
+        <v>0.2117638280933761</v>
+      </c>
+      <c r="I95">
+        <v>0.08613623523676717</v>
+      </c>
+      <c r="J95">
+        <v>-0.2703687995305703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2215600766870326</v>
+        <v>0.2089730146603242</v>
       </c>
       <c r="C98">
-        <v>-0.1191296938581153</v>
+        <v>-0.03522385814960432</v>
       </c>
       <c r="D98">
-        <v>0.06055704403100019</v>
+        <v>0.08731232055306248</v>
       </c>
       <c r="E98">
-        <v>-0.08840909414796183</v>
+        <v>-0.02686796006473885</v>
       </c>
       <c r="F98">
-        <v>-0.05459891044214259</v>
+        <v>0.158918290826821</v>
       </c>
       <c r="G98">
-        <v>-0.06125657427246943</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.09752539393391248</v>
+      </c>
+      <c r="H98">
+        <v>0.319642807729507</v>
+      </c>
+      <c r="I98">
+        <v>0.1644700712264211</v>
+      </c>
+      <c r="J98">
+        <v>-0.05139175111078181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02353433976230053</v>
+        <v>0.01536174113783134</v>
       </c>
       <c r="C101">
-        <v>0.01696005798129267</v>
+        <v>0.02911010311680905</v>
       </c>
       <c r="D101">
-        <v>-0.02568668531356942</v>
+        <v>-0.01763947212527902</v>
       </c>
       <c r="E101">
-        <v>-0.02524104504830561</v>
+        <v>0.02962129027225002</v>
       </c>
       <c r="F101">
-        <v>-0.01522338116490393</v>
+        <v>0.06707700457978336</v>
       </c>
       <c r="G101">
-        <v>-0.01828416311193186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02142592631634078</v>
+      </c>
+      <c r="H101">
+        <v>-0.1101533988289931</v>
+      </c>
+      <c r="I101">
+        <v>0.0419618121888595</v>
+      </c>
+      <c r="J101">
+        <v>-0.1133083693856774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1193437770312237</v>
+        <v>0.1206948750167786</v>
       </c>
       <c r="C102">
-        <v>0.01426672724430794</v>
+        <v>0.02237011978590809</v>
       </c>
       <c r="D102">
-        <v>-0.04375389761420874</v>
+        <v>-0.01005094048996489</v>
       </c>
       <c r="E102">
-        <v>0.08167779887772957</v>
+        <v>0.05239233951023493</v>
       </c>
       <c r="F102">
-        <v>0.001969436674709924</v>
+        <v>-0.09623302715598453</v>
       </c>
       <c r="G102">
-        <v>0.005260726884521913</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02158800630576749</v>
+      </c>
+      <c r="H102">
+        <v>0.02332055659153935</v>
+      </c>
+      <c r="I102">
+        <v>-0.0458847739658859</v>
+      </c>
+      <c r="J102">
+        <v>0.0396623372581616</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01861920092627145</v>
+        <v>0.03162412554175372</v>
       </c>
       <c r="C103">
-        <v>0.0009659467245621589</v>
+        <v>0.005344969902723727</v>
       </c>
       <c r="D103">
-        <v>-0.01286127551252531</v>
+        <v>-0.009984929833133011</v>
       </c>
       <c r="E103">
-        <v>0.02955495151864065</v>
+        <v>0.01994379529057798</v>
       </c>
       <c r="F103">
-        <v>0.01254464004066948</v>
+        <v>-0.0261050052170305</v>
       </c>
       <c r="G103">
-        <v>-0.01847126390045271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01597855602262644</v>
+      </c>
+      <c r="H103">
+        <v>-0.01375107474972909</v>
+      </c>
+      <c r="I103">
+        <v>-0.02982655350462672</v>
+      </c>
+      <c r="J103">
+        <v>0.01199541461821232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
